--- a/boss pcg.xlsx
+++ b/boss pcg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Final_Arshad_Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\final arshad git\final_arshad_game_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7A0F7A-F7EF-44E5-A42B-4243C2BAECF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A6466-4FC7-4CC2-B0B2-1C1090E5126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -349,14 +349,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:J66"/>
+  <dimension ref="D4:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,1390 +794,1404 @@
     <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="4:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="9">
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>30</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>40</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>50</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>30</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>40</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>50</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="8">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>30</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>40</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>50</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11">
+      <c r="D11" s="8">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12">
+      <c r="D12" s="8">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>7</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13">
+      <c r="D13" s="8">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="D14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
         <v>2.25</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>1.5</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15">
+      <c r="D15" s="8">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
         <v>2.25</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>1.5</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16">
+      <c r="D16" s="8">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
         <v>2.25</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>1.5</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17">
+      <c r="D17" s="8">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
         <v>5</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18">
+      <c r="D18" s="8">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="D19" s="8">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
         <v>6</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>8</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20">
+      <c r="D20" s="8">
         <v>14</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
         <v>6</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>8</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21">
+      <c r="D21" s="8">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22">
+      <c r="D22" s="8">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>40</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>50</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23">
+      <c r="D23" s="8">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="D24" s="8">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
         <v>6</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>8</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="D25" s="8">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.5</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.75</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
         <v>1.25</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="D26" s="8">
         <v>20</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
         <v>5</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27">
+      <c r="D27" s="8">
         <v>21</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
         <v>1.5</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28">
+      <c r="D28" s="8">
         <v>22</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>0.5</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>0.75</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
         <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29">
+      <c r="D29" s="8">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D30">
+      <c r="D30" s="8">
         <v>24</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
         <v>2.25</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>1.5</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D31">
+      <c r="D31" s="8">
         <v>25</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
         <v>6</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D32">
+      <c r="D32" s="8">
         <v>26</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
         <v>6</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>8</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33">
+      <c r="D33" s="8">
         <v>27</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>30</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>40</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>50</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34">
+      <c r="D34" s="8">
         <v>28</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>0.05</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>0.1</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>0.15</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35">
+      <c r="D35" s="8">
         <v>29</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35">
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36">
+      <c r="D36" s="8">
         <v>30</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37">
+      <c r="D37" s="8">
         <v>31</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
-      <c r="J37">
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38">
+      <c r="D38" s="8">
         <v>32</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>0.5</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>0.75</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9">
         <v>1.25</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39">
+      <c r="D39" s="8">
         <v>33</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
         <v>2.25</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>1.5</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40">
+      <c r="D40" s="8">
         <v>34</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D41">
+      <c r="D41" s="8">
         <v>35</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
         <v>1.2</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>1.4</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="9">
         <v>1.6</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D42">
+      <c r="D42" s="8">
         <v>36</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>6</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>8</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>10</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D43">
+      <c r="D43" s="8">
         <v>37</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
-      <c r="J43">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D44">
+      <c r="D44" s="8">
         <v>38</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44">
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+      <c r="J44" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D45">
+      <c r="D45" s="8">
         <v>39</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45">
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+      <c r="J45" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D46">
+      <c r="D46" s="8">
         <v>40</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>8</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>12</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>16</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D47">
+      <c r="D47" s="8">
         <v>41</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>0.5</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
         <v>1.5</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D48">
+      <c r="D48" s="8">
         <v>42</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="J48">
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4</v>
+      </c>
+      <c r="J48" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D49">
+      <c r="D49" s="8">
         <v>43</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="J49">
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4</v>
+      </c>
+      <c r="J49" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D50">
+      <c r="D50" s="8">
         <v>44</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>6</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <v>8</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1">
         <v>10</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D51">
+      <c r="D51" s="8">
         <v>45</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>30</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>40</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>50</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D52">
+      <c r="D52" s="8">
         <v>46</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>5</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>10</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>15</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D53">
+      <c r="D53" s="8">
         <v>47</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53">
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1">
         <v>2.25</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>1.5</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D54">
+      <c r="D54" s="8">
         <v>48</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D55">
+      <c r="D55" s="8">
         <v>49</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55">
+      <c r="G55" s="1">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1">
         <v>6</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <v>8</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D56">
+      <c r="D56" s="8">
         <v>50</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G56">
-        <v>4</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56">
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2</v>
+      </c>
+      <c r="J56" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D57">
+      <c r="D57" s="8">
         <v>51</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <v>4</v>
-      </c>
-      <c r="J57">
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4</v>
+      </c>
+      <c r="J57" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D58">
+      <c r="D58" s="8">
         <v>52</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G58">
-        <v>4</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58">
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2</v>
+      </c>
+      <c r="J58" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D59">
+      <c r="D59" s="8">
         <v>53</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>0.5</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>0.75</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="9">
         <v>1.25</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D60">
+      <c r="D60" s="8">
         <v>54</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>0.5</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>0.75</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="9">
         <v>1.25</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D61">
+      <c r="D61" s="8">
         <v>55</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>0.5</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>0.75</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="9">
         <v>1.25</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D62">
+      <c r="D62" s="8">
         <v>56</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
-      <c r="I62">
-        <v>4</v>
-      </c>
-      <c r="J62">
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1">
+        <v>4</v>
+      </c>
+      <c r="J62" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D63">
+      <c r="D63" s="8">
         <v>57</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <v>4</v>
-      </c>
-      <c r="J63">
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D64">
+      <c r="D64" s="8">
         <v>58</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G64">
-        <v>3</v>
-      </c>
-      <c r="H64">
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1">
         <v>2.25</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="1">
         <v>1.5</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D65">
+      <c r="D65" s="8">
         <v>59</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="H65">
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1">
         <v>2.25</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>1.5</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="9">
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D66">
+    <row r="66" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="10">
         <v>60</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66">
+      <c r="G66" s="11">
+        <v>3</v>
+      </c>
+      <c r="H66" s="11">
         <v>2.25</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="11">
         <v>1.5</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="12">
         <v>0.75</v>
       </c>
     </row>
